--- a/Program/Other/URS會議審查紀錄/DbLayouts/L6-共同作業/CdLoanNotYet.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L6-共同作業/CdLoanNotYet.xlsx
@@ -1,26 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79EE9722-7627-4524-8E47-025C7A96A8C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="47">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -109,10 +119,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Y:啟用 , N:未啟用</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>CdLoanNotYet</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -186,12 +192,17 @@
   <si>
     <t>NotYetCode ASC</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y:啟用
+N:未啟用</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="13">
     <font>
       <sz val="12"/>
@@ -473,10 +484,10 @@
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
-    <cellStyle name="一般 2 2" xfId="4"/>
-    <cellStyle name="一般 2 3" xfId="3"/>
-    <cellStyle name="一般_CopyBook" xfId="2"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="一般 2 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="一般_CopyBook" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -567,6 +578,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -602,6 +630,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -777,11 +822,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -802,10 +847,10 @@
       </c>
       <c r="B1" s="33"/>
       <c r="C1" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E1" s="22"/>
       <c r="F1" s="23"/>
@@ -830,7 +875,7 @@
       </c>
       <c r="B3" s="33"/>
       <c r="C3" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" s="27"/>
       <c r="E3" s="26"/>
@@ -886,22 +931,22 @@
         <v>22</v>
       </c>
       <c r="B8" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="D8" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="E8" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="F8" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="G8" s="25" t="s">
         <v>36</v>
-      </c>
-      <c r="G8" s="25" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -909,13 +954,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="13" t="s">
         <v>28</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>29</v>
       </c>
       <c r="E9" s="13">
         <v>2</v>
@@ -931,13 +976,13 @@
         <v>2</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="13" t="s">
         <v>30</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>31</v>
       </c>
       <c r="E10" s="13">
         <v>40</v>
@@ -955,13 +1000,13 @@
         <v>3</v>
       </c>
       <c r="B11" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="13" t="s">
         <v>39</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>40</v>
       </c>
       <c r="E11" s="19">
         <v>3</v>
@@ -969,7 +1014,7 @@
       <c r="F11" s="18"/>
       <c r="G11" s="18"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" ht="32.4">
       <c r="A12" s="18">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -990,7 +1035,7 @@
         <v>4</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1160,10 +1205,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" activeCellId="8" sqref="B10 C21 C10 D10 H7 C13 C12 K4 L1"/>
       <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
@@ -1190,13 +1235,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="30" t="s">
         <v>45</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
